--- a/FinTech-Firms.xlsx
+++ b/FinTech-Firms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taotao/Desktop/github/awesome-fintech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB78123-EA72-8848-A99D-E08B778F862C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E4EED-E647-274A-9CF0-B1AD9311328C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1B15A463-F62A-4348-80D1-E2E1DFCFAF53}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>公司名/项目名</t>
   </si>
@@ -278,12 +278,166 @@
     <t>盛立金融</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>更新时间：2019.03.02 - 2018.03.08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueOcean Pay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨境移动支付聚合平台，主要面向中国游客提供跨境移动支付业务，通过提供POS连接到腾讯系统，进行境内人民币扣款，中国建设银行进行币种结算，之后再清算给境外商户，此外还针对商家端做增值服务，帮助商家搭建公众号和电商生态。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国游客
+境外移动支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">融资：
+2019.02 Pre-A轮 美金 数百万 HBCC港京共创基金、Molecular Group、IMO VENTUREs、Asia Phoenix Investments </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PingPong金融 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨境电商金融服务商，致力于为跨境电商卖家提供低成本的跨境收款以及其他个性化定制的金融衍生服务。
+- 产品服务
+1.注册：用户需注册PingPong账号；
+2.收款：接收全球收款；
+3.提现：通过PingPong转账至国内银行账户。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.收款费率1%封顶；
+2.多平台统一管理，一键提现，直达国内银行账户。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨境电商卖家
+境外移动支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">融资：
+2019.02 未透露 人民币 未披露 华睿投资、CBC宽带资本、赛伯乐投资、鸥翎投资、普罗资本、 丽水琛石股权投资合伙企业（有限合伙）、 宁波甦垠投资合伙企业（有限合伙） 
+2018.03 C轮 人民币 未透露 中金公司 
+2017.02 B+轮 人民币 亿元及以上 Fidelity,广发信德 
+2016.11 B轮 人民币 未披露 未透露 
+2016.09 A轮 人民币 未披露 沃富金信、斯道资本 
+2015.09 天使轮 人民币 1,500万 言和资本 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚信立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据风控技术服务平台，基于大数据和数据分析技术，为金融机构提供大数据征信风控技术解决方案。
+- 蜜蜂风控平台
+以用户授权的互联网信息进行交叉验证，判断用户的风险点，主要服务于消费金融公司、国内大型P2P、银行及小贷公司等；提供风控解决方案，将用户授权的基于互联网上的大部分行为信息经过清洗、整合、分析和翻译，更好地为金融机构提供风险控制的依据。
+- 蜜罐
+通过用户的联系人网络判断/多头借贷和集团欺诈风险。
+- 风险建模
+结合用户授权提供的过往数据及客户现有数据开发打分卡模型，量身设计信贷策略。
+- 行业报告
+从不同维度来诠释整个行业的发展趋势，帮助金融机构准确、及时地了解行业现状，把握行业动态。
+- AI灵灵
+在智能机器人的语音指引下，用户一步步打开手机上相应的APP页面，机器人会实时分析页面内容并智能判断用户是否存在欺骗行为，短短1-2分钟内，便能完成对用户指定个人信息的认证。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">规模：
+截止到18年9月，
+- 客户有：京东金融、小米、百度、宜信、万达集团、浦发银行等。
+- 超过1400个金融机构使用聚信立风控平台，6000多万的独立借款人使用了聚信立，总查询量超过6.7亿，日均撮合7亿多贷款。
+融资：
+2019.02 C轮 人民币 未披露  田仆资产，方源智本 
+2017.05 B轮 人民币 1亿 竑观资产、领沨资本、京东金融、贵州数联铭品科技有限公司 
+2014.12 A轮 人民币 2800万 京东金融 
+2014.05 Pre-A轮 人民币 数百万 合力投资 
+2013.07 天使轮 人民币 数百万 纽信创投、合力投资 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据风控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方微银</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于企业财税大数据的第三方信贷服务机构，公司以税务大数据为基础，整合传统银行数据、工商、法院等政府数据，还原小微企业经营行为、信用水平与风险画像，将企业的纳税信用转化为信贷信用，依靠旗下税银互动平台等产品，解决中小微企业融资难问题。
+- 税银互动平台
+提供税局到银行数据交互渠道，以中小微企业日常经营中的涉税信息为授信依据，实现税、银、企三方信息共享，帮助中小微企业高效、精准地获得贷款融资服务。
+- 智能融顾策略
+智能融顾面向金融机构各类产品，根据产品市场定位、风险定位、产品定位需求智能匹配、优化产品策略，覆盖多维策略要素，提供线上线下兼容的一体化策略方案。
+- 税务反欺诈
+通过对税务行为数据的深度挖掘建立了微银税务反欺诈模型体系；该体系包括税务黑名单、纳税义务履行行为、税种缴税行为模式识别、交易行为模式识别、重大风险提示等多维度模块，及时发现税务反欺诈风险。
+- 智能决策分析
+基于大数据、人工智能、机器学习等技术建立的创新层次化智能评级引擎，动态计算产品最低利率以及限额，具备对风险的多维度学习、行为学习、自主学习等能力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中小微企业
+财税大数据
+企业融资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">融资：
+2019.02 B轮 美金 千万级 达泰资本、VentechChinaIIISICAR 
+2018.03 A轮 人民币 未披露 拉萨继联投资、上海其光投资、宋硕投资 
+2016.11 天使轮 人民币 未披露 上海其光投资 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财税大数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">淳石资本 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富管理服务提供商，公司已发行产品以固定收益类和股权投资类为主，覆盖固定收益类、股权投资类、证券投资类等类别，致力于帮助用户实现资产快速稳健升值。
+- 淳萃汇：为不同等级会员提供不同级别的服务。
+1.黑金家族：产品优先权、LPL项目跟投权利、淳石私董会。
+2.铂金家族：移民、高端子女教育；医疗服务；研修项目服务。
+3.黄金会员：一对一私人理财专家、淳石学院沙龙。
+4.云顶会员：年度LPL峰会、企业咨询及投行服务、企业个人税务筹划。
+- 交创投资：为用户提供广泛的金融服务，投资银行、私募股权投资、以及资产管理与财富管理等。
+- 淳富家族办公室：为服务个人与家族、企业，综合财富管理机构。通过融合专业知识和全球化资源配置融合，为用户完成财富管理目标。t提供股东资源优势和金牌管理团队，通过整合家族资源， 提供定制化的家族集成方案。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">融资：
+2019.02 B轮 人民币 数千万 未披露 
+2018.01 A+轮 人民币 未披露 国储能源、南昌金投、霍普投资、英谊资本 
+2017.09 A轮 人民币 未透露 软银中国资本、高特佳投资、英谊资本、东方港湾架桥投资、水木资本、同创伟业、复朴投资 
+2017.06 天使轮 人民币 未披露 英谊资本、复朴投资、深圳市老虎汇资产管理有限公司 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族财富管理
+税务规划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -348,6 +502,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="PingFangSC-Regular"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -380,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,6 +561,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E70F5-F39C-FE4D-9E30-C532B6C9821A}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -733,7 +899,7 @@
     <col min="6" max="6" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -753,9 +919,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -763,257 +929,367 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="48">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="80">
+      <c r="A3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="272">
+      <c r="A4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="8">
+        <v>42173</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="350">
+      <c r="A5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="8">
+        <v>41467</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="320">
+      <c r="A6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="8">
+        <v>42826</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="395">
+      <c r="A7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42111</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="192">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42036</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="64">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4">
+        <v>41183</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="208">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4">
+        <v>42979</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="350">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42156</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="224">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4">
+        <v>42125</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="192">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4">
+        <v>42095</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="192">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42186</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="48">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E17" s="4">
         <v>42583</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="32">
-      <c r="A4" s="3" t="s">
+    <row r="18" spans="1:8" ht="32">
+      <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E18" s="4">
         <v>42979</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="48">
-      <c r="A5" s="3" t="s">
+    <row r="19" spans="1:8" ht="48">
+      <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E19" s="4">
         <v>38412</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="96">
-      <c r="A6" s="3" t="s">
+    <row r="20" spans="1:8" ht="96">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E20" s="4">
         <v>37561</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6">
+      <c r="H20">
         <v>1111</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="192">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4">
-        <v>42036</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="64">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4">
-        <v>41183</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="208">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="4">
-        <v>42979</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="350">
-      <c r="A11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="4">
-        <v>42156</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="224">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4">
-        <v>42125</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="192">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="4">
-        <v>42095</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="192">
-      <c r="A14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="4">
-        <v>42186</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EiYxxF+siL5PHsAkzxshV5DRHtOsa3oN4IBoa64vkDTQv4WbphlQl6aVBSNYdv4KS89FUrkDPEd389XlOqY7Cg==" saltValue="Gg9GZJEbtB68SD1EAACF6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="2">
+  <sheetProtection algorithmName="SHA-512" hashValue="cxNohAKOBJGEKgUrUTI/VLNT8pQdMV27uItiayqbhB+vJvUk7V1kXE1lthmmFyKcOuxpi6F4ZRxCrGQKtKL5Ug==" saltValue="KDw2+ix6SHyPdfg+dKxQXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="3">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://spssau.com/" xr:uid="{A8A63123-C53C-5249-B10B-E1EC50501CA2}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.zhongan.io/" xr:uid="{5DEC5DE1-FE3A-5C4A-A3A9-8E7D4212E31D}"/>
-    <hyperlink ref="A5" r:id="rId3" display="http://www.shenglisoft.com/" xr:uid="{68C7EDD9-DEAA-7B47-92BF-5C7A278E2EDD}"/>
-    <hyperlink ref="A6" r:id="rId4" display="http://www.investoday.com.cn/" xr:uid="{1DC6E5A7-0795-3A45-BCF0-1E471B005FF9}"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
-    <hyperlink ref="A9" r:id="rId6" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
-    <hyperlink ref="A11" r:id="rId7" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
-    <hyperlink ref="A12" r:id="rId8" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
-    <hyperlink ref="A13" r:id="rId9" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
-    <hyperlink ref="A14" r:id="rId10" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
+    <hyperlink ref="A9" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
+    <hyperlink ref="A10" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
+    <hyperlink ref="A12" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
+    <hyperlink ref="A13" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
+    <hyperlink ref="A14" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
+    <hyperlink ref="A17" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
+    <hyperlink ref="A19" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
+    <hyperlink ref="A20" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
+    <hyperlink ref="A3" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
+    <hyperlink ref="A4" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
+    <hyperlink ref="A5" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
+    <hyperlink ref="A7" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
+    <hyperlink ref="A6" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinTech-Firms.xlsx
+++ b/FinTech-Firms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taotao/Desktop/github/awesome-fintech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E4EED-E647-274A-9CF0-B1AD9311328C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A3627B-9F57-B94A-ABE2-7C8E5BD5681B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1B15A463-F62A-4348-80D1-E2E1DFCFAF53}"/>
   </bookViews>
@@ -559,14 +559,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -883,10 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E70F5-F39C-FE4D-9E30-C532B6C9821A}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -919,377 +920,384 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="21">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="80">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="80">
+      <c r="A4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="272">
-      <c r="A4" s="7" t="s">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="272">
+      <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E5" s="7">
         <v>42173</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="350">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:6" ht="350">
+      <c r="A6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="7">
         <v>41467</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="320">
-      <c r="A6" s="7" t="s">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="320">
+      <c r="A7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="7">
         <v>42826</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="395">
-      <c r="A7" s="7" t="s">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="395">
+      <c r="A8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="7">
         <v>42111</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="192">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="192">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>42036</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="64">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:6" ht="64">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>41183</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="208">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:6" ht="208">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <v>42979</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="350">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:6" ht="350">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>42156</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="224">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:6" ht="224">
+      <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="4">
         <v>42125</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="192">
-      <c r="A14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="4">
-        <v>42095</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="192">
       <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42095</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="192">
+      <c r="A16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>42186</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="48">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="48">
+      <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <v>42583</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="32">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:8" ht="32">
+      <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>42979</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="48">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:8" ht="48">
+      <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>38412</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="96">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:8" ht="96">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>37561</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>1111</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cxNohAKOBJGEKgUrUTI/VLNT8pQdMV27uItiayqbhB+vJvUk7V1kXE1lthmmFyKcOuxpi6F4ZRxCrGQKtKL5Ug==" saltValue="KDw2+ix6SHyPdfg+dKxQXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
-    <hyperlink ref="A10" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
-    <hyperlink ref="A12" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
-    <hyperlink ref="A13" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
-    <hyperlink ref="A14" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
-    <hyperlink ref="A15" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
-    <hyperlink ref="A17" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
-    <hyperlink ref="A18" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
-    <hyperlink ref="A19" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
-    <hyperlink ref="A20" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
-    <hyperlink ref="A3" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
-    <hyperlink ref="A4" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
-    <hyperlink ref="A5" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
-    <hyperlink ref="A7" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
-    <hyperlink ref="A6" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
+    <hyperlink ref="A10" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
+    <hyperlink ref="A11" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
+    <hyperlink ref="A13" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
+    <hyperlink ref="A14" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
+    <hyperlink ref="A15" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
+    <hyperlink ref="A18" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
+    <hyperlink ref="A19" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
+    <hyperlink ref="A20" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
+    <hyperlink ref="A21" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
+    <hyperlink ref="A4" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
+    <hyperlink ref="A5" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
+    <hyperlink ref="A6" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
+    <hyperlink ref="A8" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
+    <hyperlink ref="A7" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinTech-Firms.xlsx
+++ b/FinTech-Firms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taotao/Desktop/github/awesome-fintech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A3627B-9F57-B94A-ABE2-7C8E5BD5681B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2623727B-7B09-6B48-83DD-B459CCE5AB2C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1B15A463-F62A-4348-80D1-E2E1DFCFAF53}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>公司名/项目名</t>
   </si>
@@ -430,6 +430,172 @@
   <si>
     <t>家族财富管理
 税务规划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间：2019.03.09 - 2018.03.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险极客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中小企业
+企业员工商业保险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或国家中小企业发展基金支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资：
+2018.11 B轮 人民币 1亿 联想控股、国家中小企业发展基金
+2016.12 A+轮 人民币 5000万 联想之星、新方程、启迪之星、清控银杏 
+2016.04 A轮 人民币 未披露 联想之星、和才基金、复星集团、博思投资 
+2015.07 天使轮 人民币 未披露 和才基金 不详 不详</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.中国处在城镇化快速发展的时期，随着越来越多的务工人群向城市聚集，传统的依靠地域和血缘建立起来的初级群体和次级群体在分散风险方面的作用越来越弱，人们需要更加市场化的行为来预防意外事件带来的风险，商业保险就是一种非常好的的形式
+2.小企业一直是市场上的弱势群体，不论是在企业融资需求还是其他金融服务方面，大的金融机构对其往往重视程度不够
+3.保监会2017年11月公布的数据显示，我国寿险保单持有人只占总人口的8％，人均持有保单仅有0.13张。而2015年，美国、日本、韩国、台湾的人均保单量就达到了0.8张、1.26张、1.67张、2张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎博科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过深度学习、自然语言处理等技术，提供一问一答、一键秒回的金融信息智能搜索，以及精准、实时的金融信息智能推荐，使虎博科技的产品区别于传统金融信息平台的产品形态。
+- 传统金融信息服务终端“货架式”较重的产品形态，智能搜索功能缺失，无法高效满足专业研究人员的需求；
+- 垄断型产品高昂的价格和使用门槛，将广大普通个人投资者隔绝在门外；
+- 传统的主流搜索引擎服务，无法满足专业领域精准深度搜索和智能推荐的需求。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融搜索引擎
+文本挖掘
+人工智能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资：
+2019.03 A轮 美金 3300万 PAC、宜信新金融产业投资基金、高榕资本 
+2018.06 Pre-A轮 人民币 亿元及以上 新创建集团、高榕资本、新鸿基公司 
+2017.08 天使轮 人民币 数千万 高榕资本、点亮基金、大众点评创始人张涛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融文本智能搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简答数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数据智能投研提供商，致力于对金融数据进行深度挖掘、整合和分析，进而帮助涉足金融资产配置领域的各类客户在愈加多变的金融市场中取得收益与风险的平衡。
+- 从智能投研领域切入，运用知识图谱及机器学习等人工智能技术工具，结合金融专家系统和业务逻辑，实现了金融数据向金融认知的跃迁，辅助投资者进行投资决策。
+- 在针对C端市场上，基于微信生态构建了自媒体矩阵和小程序矩阵，自媒体矩阵包括摸鱼小组和喵招财两个公众号作为流量入口。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自媒体矩阵
+公众号 + 小程序
+C端投研服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模（截止到2019年3月）：
+其他业务数据：目前两个公众号已经聚集了几十万粉丝，每篇文章的浏览量基本都在5万以上。
+其他财务数据（月）：在不做任何导流和产品营销的前提下，财报分析服务目前已经为简答创造了上百万的营业收入。
+融资：
+2019.03 天使轮 人民币 数千万 个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自媒体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富途证券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网券商，公司为炒股用户提供港股、美股以及A股等股票账户开户和股票交易服务，公司自行开发了炒股软件富途牛牛。此外，公司也提供美期权服务。
+证券交易行情软件，支持多屏显示，并可以定制每个屏幕的内容，同时支持monitor功能等。该软件面向大陆渴望进入港股市场的人群，为用户提供基于个人需求的实时行情和港股领域内的专业交易服务。
+- 富途牛牛
+1.直连交易所
+2.极速下单
+3.聊天互动
+4.安全稳定
+5.全平台覆盖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A股，港股，美股开户和交易服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资：
+2019.03 战略融资 美金 7000万 General Atlantic、泛大西洋投资 
+2017.06 C轮 美金 1.46亿 腾讯、经纬中国、红杉中国 
+2015.08 B轮 美金 6000万 腾讯、红杉中国、经纬中国 
+2014.03 A轮 美金 1000万 腾讯、红杉中国、经纬中国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多市场投资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽金金服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网金融服务平台，通过大数据的方法使中小企业信息透明，并为分散的中小企业提供金融产品设计、技术平台、业务运营支持等一站式产业金融解决方案，协助其共建产业金融生态圈。
+- 量身定制个性化供应链金融产品，服务产业链多级供应商：依托已有的成熟产品，可一对一针对大型核心企业的自身痛点与诉求制定个性化产业金融方案，同时可覆盖核心企业上下游多级合作伙伴。
+- 全在线平台：充分借助技术能力与互联网设计全在线业务模式，在满足合规与风险的前提，以更高的效率、更优的体验、更合理的运营成本为各方提供服务。
+- 一站式服务，自由按需选择：泽金可提供从产品方案规划咨询、到技术方案落地实施、到业务落地运营一站式服务能力，核心企业可根据自身需求灵活选择服务。
+- 核心企业零投入，快速落地：多种灵活商务模式，可支持核心企业减少决策成本与初级实施成本，快速落地业务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业端业务系统服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模：
+客户数量：100,000 覆盖城市数量：18 
+客单价：580,000 其他财务数据（月）：- 2017年第3季度融单交易规模56.80亿，累计275.1亿 - 单笔融资最高2亿，最低3000元，平均58万
+其他业务数据：
+- 先后与格力、康佳、海尔、中石化等知名企业合作
+- 覆盖电器、 电子、通讯、服装食品等行业，为产业链上销售规模超4000亿的10万多家小微企业提供金融服务
+- 与中信银行、中原银行、华通银行、 绵商行、 中信建投华信证券、华融证券等金融机构深度合作
+- 处理时效最快3分钟，节省成本平均38.5%，加速资金周转平均提前21.5天收款
+- 组织活动/会议178场，跨越18个省市
+融资：
+2019.03 A轮 人民币 数千万 招商局创投
+2016.09 Pre-A轮 人民币 未披露 峰瑞资本 
+2016.04 天使轮 人民币 未披露 深圳市品胜环球投资发展有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融企业业务深度定制化服务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +672,7 @@
       <sz val="14"/>
       <color rgb="FF222222"/>
       <name val="PingFangSC-Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -883,21 +1049,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E70F5-F39C-FE4D-9E30-C532B6C9821A}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="50.5" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.5" customWidth="1"/>
+    <col min="4" max="4" width="64.5" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
@@ -928,9 +1094,9 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -938,103 +1104,109 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="80">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="224">
       <c r="A4" s="6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="192">
+      <c r="A5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="272">
-      <c r="A5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="7">
-        <v>42173</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="350">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="208">
       <c r="A6" s="6" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="7">
-        <v>41467</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="320">
+        <v>102</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="224">
       <c r="A7" s="6" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="7">
-        <v>42826</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="395">
+        <v>107</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="409.6">
       <c r="A8" s="6" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="7">
-        <v>42111</v>
+        <v>113</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1042,262 +1214,373 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="192">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
+    <row r="10" spans="1:6" ht="80">
+      <c r="A10" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4">
-        <v>42036</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="64">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="272">
+      <c r="A11" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="4">
-        <v>41183</v>
+        <v>73</v>
+      </c>
+      <c r="E11" s="7">
+        <v>42173</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="208">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="350">
+      <c r="A12" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="4">
-        <v>42979</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="350">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>76</v>
+      </c>
+      <c r="E12" s="7">
+        <v>41467</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="320">
+      <c r="A13" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="4">
-        <v>42156</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="224">
-      <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="E13" s="7">
+        <v>42826</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="395">
+      <c r="A14" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="4">
-        <v>42125</v>
+        <v>81</v>
+      </c>
+      <c r="E14" s="7">
+        <v>42111</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="192">
-      <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="4">
-        <v>42095</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="192">
       <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4">
+        <v>42036</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="64">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="4">
+        <v>41183</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="208">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42979</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="350">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4">
+        <v>42156</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="224">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4">
+        <v>42125</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="192">
+      <c r="A21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4">
+        <v>42095</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="192">
+      <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E22" s="4">
         <v>42186</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="8" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="48">
-      <c r="A18" s="3" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="48">
+      <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E24" s="4">
         <v>42583</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="32">
-      <c r="A19" s="3" t="s">
+    <row r="25" spans="1:8" ht="32">
+      <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E25" s="4">
         <v>42979</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="48">
-      <c r="A20" s="3" t="s">
+    <row r="26" spans="1:8" ht="48">
+      <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E26" s="4">
         <v>38412</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="96">
-      <c r="A21" s="3" t="s">
+    <row r="27" spans="1:8" ht="96">
+      <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E27" s="4">
         <v>37561</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H21">
+      <c r="H27">
         <v>1111</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <sheetProtection algorithmName="SHA-512" hashValue="B4D1vMJ0kxBuu7n0yRCnI2o2U/KVGJHPQBZCfW2FoU5ovPg8axiQHfWJdr/G/EkWGWA1ouCGXzRMeu6yR+1iUA==" saltValue="uppDfU9lS42JvIyFroJYig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
-    <hyperlink ref="A11" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
-    <hyperlink ref="A13" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
-    <hyperlink ref="A14" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
-    <hyperlink ref="A15" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
-    <hyperlink ref="A16" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
-    <hyperlink ref="A18" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
-    <hyperlink ref="A19" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
-    <hyperlink ref="A20" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
-    <hyperlink ref="A21" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
-    <hyperlink ref="A4" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
-    <hyperlink ref="A5" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
-    <hyperlink ref="A6" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
-    <hyperlink ref="A8" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
-    <hyperlink ref="A7" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
+    <hyperlink ref="A16" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
+    <hyperlink ref="A17" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
+    <hyperlink ref="A20" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
+    <hyperlink ref="A21" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
+    <hyperlink ref="A22" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
+    <hyperlink ref="A24" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
+    <hyperlink ref="A25" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
+    <hyperlink ref="A26" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
+    <hyperlink ref="A27" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
+    <hyperlink ref="A10" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
+    <hyperlink ref="A11" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
+    <hyperlink ref="A12" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
+    <hyperlink ref="A13" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
+    <hyperlink ref="A4" r:id="rId16" xr:uid="{47CE8DEC-B3EA-7042-AECD-D190F9BEDCE9}"/>
+    <hyperlink ref="A5" r:id="rId17" xr:uid="{ACCB3BAF-ACEF-E04A-9DC0-CF9BC5230899}"/>
+    <hyperlink ref="A6" r:id="rId18" location="/" xr:uid="{F891851B-6F42-9143-A4E2-CEB29CA98818}"/>
+    <hyperlink ref="A7" r:id="rId19" xr:uid="{C7872B6B-D8F1-BC46-A274-A6ED5A5268A7}"/>
+    <hyperlink ref="A8" r:id="rId20" xr:uid="{279994C4-9FA8-924B-87D5-9F0DC577D248}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinTech-Firms.xlsx
+++ b/FinTech-Firms.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taotao/Desktop/github/awesome-fintech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2623727B-7B09-6B48-83DD-B459CCE5AB2C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90D9D18-7D41-2040-BDBE-C495BE75A4E7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1B15A463-F62A-4348-80D1-E2E1DFCFAF53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>公司名/项目名</t>
   </si>
@@ -596,6 +596,139 @@
   </si>
   <si>
     <t>金融企业业务深度定制化服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间：2019.03.16 - 2018.03.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆包网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">为中小保险公司、保险中介公司赋能以及数据化管理；
+给中介机构提供管理服务平台、帮助保险中介公司运营、维护，同时搭建数字化资产，结构化，更好提高效能；
+通过管理服务系统帮助中介机构更好的管理客户，快速理赔、风险管理、数据管理。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务数据：
+复购率：90% 其他业务数据：- 2018年度最佳保险科技公司； 2017年度InsurStar最具潜力企业奖；
+- 作为典型案例，连续两年入选清华大学五道口金融学院《全球保险科技报告》；
+- 入选美国Plug and Play中国第一期保险科技独角兽加速营；
+- 2018年中关村论坛，获评2018年度盛景GIA全球创新大奖TOP20；
+融资：
+2019.03 C轮 人民币 9500万 博将资本、本翼资本、和瑞乐业、浩信达 
+2018.01 B轮 人民币 7500万 盛景嘉成、尚势资本、盛腾喜大、博将资本 
+2017.04 A轮 人民币 数千万 本翼资本 
+2016.11 Pre-A轮 人民币 数千万 五星投资、蓝海方舟、隆领投资 
+2015.09 天使轮 人民币 数百万 汇财私人资本、首业资本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队背景好（互联网，传媒，保险，咨询，审计，阿里）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智途云天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字资产风险评估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字资产风险评估与管理服务商，从IT资产风险测试与量化分析评估角度切入，以全球网络与信息安全大数据为基础，运用人工智能技术，为企业客户提供“资产发现-安全评估-威胁量化-解决建议”的闭环服务。
+互联网IT资产风险评估管理平台 iRisk：一款基于互联网大数据的企业级IT资产安全风险评估与量化分析软件平台，旨在为企业提供掌控自己安全风险和态势的服务—深入了解自己开放于互联网上的IT资产的安全风险状态，洞悉自己所面临的安全态势。平台为用户提供IT资产扫描检测、风险预测、供应链安全评估、企业防钓鱼邮件测评与培训四大类功能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资：
+2019.03 天使轮 人民币 1000万 红杉中国种子基金、云天使基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字资产风险评估，比较新颖和前沿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金客拉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过微信小程序来进行金融业务撮合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金客拉是一款金融社交及业务撮合微信小程序。利用微信小程序，帮助金融行业从业者在碎片时间里进行业务撮合。用户可以在程序中查看或发布金融业务，并进行分享、沟通、交换名片。
+择标签，业务智能匹配，推荐可能感兴趣的人；站内沟通，交换名片，一键分享，安全保证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务（截止到2019年1月）：
+用户数量：上线3个月，10000 月新增：4000 周留存率：40% 平均日活：100日 平均使用时长：400秒/次 PV：600~700
+融资：
+2019.03 A轮 人民币 千万级 国泰瑞丰基金
+2018.01 Pre-A轮 人民币 近千万元 浅石创投 
+2017.09 天使轮 人民币 数百万元 银和国瑞 
+2017.05 种子轮 人民币 未透露 深度加速，维创资本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交，微信小程序，业务撮合平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">科讯金服 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融科技服务商，基于大数据及人工智能技术，为用户提供综合性金融解决方案。其主要产品“普惠金融云”通过对数据和样本的机器深度学习，自动构建信贷评分规则和决策体系，并根据用户风险和行为特征，快速判断用户贷款额度及利率，可实现信用、风险和授信的合理配置，提升信贷服务效率。
+- 金融超脑：基于人工智能（AI）技术，结合金融专业知识，通过对海量数据和样本的机器深度学习，自动构建信贷评分规则和决策体系（决策引擎），根据用户风险和行为特征，快速判断用户贷款额度及利率，实现客户的信用、风险和授信的合理配置。
+- 通过特有的“人脸 + 声纹”双生物特征认证，识别用户身份，判别“我就是我”，确定主观意愿。通过语义理解判断说话内容一致性，实现在线反欺诈、远程开户、用信确认等，确保线上金融服务入口安全。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资：
+2019.01 未透露 人民币 未披露 合肥睿思科迈软件技术合伙企业（有限合伙）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台服务商，成立时间早（或许是经常转型）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">天眼查 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业信用信息查询平台，基于开放数据和共享的政府公共数据，为用户提供企业背景、企业发展、司法风险、经营风险、经营状况、知识产权方面等数据维度查询，同时还拥有“天眼查”金融版、“天眼查”探索版、“天眼查”移动端等相关产品.
+目前，天眼查收录了全国超1.2亿家市场主体信息，除了上市信息、企业背景、企业发展、司法风险、经营风险、经营状况、知识产权等64种数据维度信息展示外，独特的“关系梳理“能让用户直观地看清关联实体及其背后的商业关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商法务，企业族谱，多维度分析公司历史和现状</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务（截止到2018年3月）：
+用户数量：100,000,000 其他业务数据：1.用户超过1亿
+2.已收录1.4亿家来自公司、社会组织、律所等社会实体的信息，包括上市信息、企业背景、企业发展、法律风险、经营风险、经营状况、知识产权等 80多个数据维度
+其他财务数据（月）：1.2017年4月11日启动商业化，5月实现月盈亏平衡 2.大客户客单价在几百万元
+融资：
+2017.03 A轮 人民币 1.3亿 启迪创投、清控银杏 
+2016.09 Pre-A轮 人民币 未披露 腾业创投 
+2015.07 天使轮 人民币 2500万 腾业创投</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商大数据，多维度分析公司历史和现状</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +866,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1049,11 +1185,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E70F5-F39C-FE4D-9E30-C532B6C9821A}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1096,7 +1232,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A3" s="8" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1104,109 +1240,107 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="224">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="208">
       <c r="A4" s="6" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>93</v>
+        <v>139</v>
+      </c>
+      <c r="E4" s="9">
+        <v>41913</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="192">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="224">
       <c r="A5" s="6" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="208">
+        <v>134</v>
+      </c>
+      <c r="E5" s="9">
+        <v>40238</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="144">
       <c r="A6" s="6" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
+      </c>
+      <c r="E6" s="9">
+        <v>42736</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="224">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="176">
       <c r="A7" s="6" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
+      </c>
+      <c r="E7" s="9">
+        <v>43313</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="409.6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="240">
       <c r="A8" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="E8" s="9">
+        <v>42186</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A9" s="8" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1214,103 +1348,109 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="80">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="192">
       <c r="A10" s="6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="160">
+      <c r="A11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="272">
-      <c r="A11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="7">
-        <v>42173</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="350">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="160">
       <c r="A12" s="6" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="7">
-        <v>41467</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="320">
+        <v>102</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="224">
       <c r="A13" s="6" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="7">
-        <v>42826</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="395">
+        <v>107</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="350">
       <c r="A14" s="6" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="7">
-        <v>42111</v>
+        <v>113</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1318,269 +1458,379 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="192">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:6" ht="64">
+      <c r="A16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="144">
+      <c r="A17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="7">
+        <v>42173</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="335">
+      <c r="A18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="7">
+        <v>41467</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="256">
+      <c r="A19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="7">
+        <v>42826</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="365">
+      <c r="A20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="7">
+        <v>42111</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="128">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E22" s="4">
         <v>42036</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="64">
-      <c r="A17" s="3" t="s">
+    <row r="23" spans="1:6" ht="48">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E23" s="4">
         <v>41183</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="208">
-      <c r="A18" s="2" t="s">
+    <row r="24" spans="1:6" ht="208">
+      <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E24" s="4">
         <v>42979</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="350">
-      <c r="A19" s="3" t="s">
+    <row r="25" spans="1:6" ht="320">
+      <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E25" s="4">
         <v>42156</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="224">
-      <c r="A20" s="3" t="s">
+    <row r="26" spans="1:6" ht="192">
+      <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E26" s="4">
         <v>42125</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="192">
-      <c r="A21" s="3" t="s">
+    <row r="27" spans="1:6" ht="176">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E27" s="4">
         <v>42095</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="192">
-      <c r="A22" s="3" t="s">
+    <row r="28" spans="1:6" ht="176">
+      <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E28" s="4">
         <v>42186</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="48">
-      <c r="A24" s="3" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="48">
+      <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E30" s="4">
         <v>42583</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="32">
-      <c r="A25" s="3" t="s">
+    <row r="31" spans="1:6" ht="48">
+      <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E31" s="4">
         <v>42979</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="48">
-      <c r="A26" s="3" t="s">
+    <row r="32" spans="1:6" ht="32">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E32" s="4">
         <v>38412</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="96">
-      <c r="A27" s="3" t="s">
+    <row r="33" spans="1:8" ht="64">
+      <c r="A33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E33" s="4">
         <v>37561</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H27">
+      <c r="H33">
         <v>1111</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B4D1vMJ0kxBuu7n0yRCnI2o2U/KVGJHPQBZCfW2FoU5ovPg8axiQHfWJdr/G/EkWGWA1ouCGXzRMeu6yR+1iUA==" saltValue="uppDfU9lS42JvIyFroJYig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="4">
+  <sheetProtection algorithmName="SHA-512" hashValue="585fweS7eZPBLEHXIpIL7hOJEjikk6Qf0KsjJ2udsPacZLS/LO5nm0GPl4czgwbUTypOZv3sZIxrwk0g+gxYow==" saltValue="NhVhMMXuCE81Hl95vWamDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
-    <hyperlink ref="A17" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
-    <hyperlink ref="A19" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
-    <hyperlink ref="A20" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
-    <hyperlink ref="A21" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
-    <hyperlink ref="A22" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
-    <hyperlink ref="A24" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
-    <hyperlink ref="A25" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
-    <hyperlink ref="A26" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
-    <hyperlink ref="A27" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
-    <hyperlink ref="A10" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
-    <hyperlink ref="A11" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
-    <hyperlink ref="A12" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
-    <hyperlink ref="A14" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
-    <hyperlink ref="A13" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
-    <hyperlink ref="A4" r:id="rId16" xr:uid="{47CE8DEC-B3EA-7042-AECD-D190F9BEDCE9}"/>
-    <hyperlink ref="A5" r:id="rId17" xr:uid="{ACCB3BAF-ACEF-E04A-9DC0-CF9BC5230899}"/>
-    <hyperlink ref="A6" r:id="rId18" location="/" xr:uid="{F891851B-6F42-9143-A4E2-CEB29CA98818}"/>
-    <hyperlink ref="A7" r:id="rId19" xr:uid="{C7872B6B-D8F1-BC46-A274-A6ED5A5268A7}"/>
-    <hyperlink ref="A8" r:id="rId20" xr:uid="{279994C4-9FA8-924B-87D5-9F0DC577D248}"/>
+    <hyperlink ref="A22" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
+    <hyperlink ref="A23" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
+    <hyperlink ref="A25" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
+    <hyperlink ref="A26" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
+    <hyperlink ref="A27" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
+    <hyperlink ref="A28" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
+    <hyperlink ref="A30" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
+    <hyperlink ref="A31" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
+    <hyperlink ref="A32" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
+    <hyperlink ref="A33" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
+    <hyperlink ref="A16" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
+    <hyperlink ref="A17" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
+    <hyperlink ref="A18" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
+    <hyperlink ref="A20" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
+    <hyperlink ref="A19" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
+    <hyperlink ref="A10" r:id="rId16" xr:uid="{47CE8DEC-B3EA-7042-AECD-D190F9BEDCE9}"/>
+    <hyperlink ref="A11" r:id="rId17" xr:uid="{ACCB3BAF-ACEF-E04A-9DC0-CF9BC5230899}"/>
+    <hyperlink ref="A12" r:id="rId18" location="/" xr:uid="{F891851B-6F42-9143-A4E2-CEB29CA98818}"/>
+    <hyperlink ref="A13" r:id="rId19" xr:uid="{C7872B6B-D8F1-BC46-A274-A6ED5A5268A7}"/>
+    <hyperlink ref="A14" r:id="rId20" xr:uid="{279994C4-9FA8-924B-87D5-9F0DC577D248}"/>
+    <hyperlink ref="A8" r:id="rId21" xr:uid="{0EE65931-167E-2E4D-9C71-55A2369BD464}"/>
+    <hyperlink ref="A7" r:id="rId22" xr:uid="{2E398C4A-6AD1-9645-8E34-0FA376320922}"/>
+    <hyperlink ref="A6" r:id="rId23" xr:uid="{8AD71AB7-A729-EF41-8014-E153DC615202}"/>
+    <hyperlink ref="A5" r:id="rId24" xr:uid="{2BB3235D-7C18-F945-BDD8-6C123454485A}"/>
+    <hyperlink ref="A4" r:id="rId25" xr:uid="{E2F0C474-24A5-4543-BF4C-8F23FF8073F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinTech-Firms.xlsx
+++ b/FinTech-Firms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taotao/Desktop/github/awesome-fintech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90D9D18-7D41-2040-BDBE-C495BE75A4E7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF9F0DD-1D17-9842-9529-71397F56E4D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1B15A463-F62A-4348-80D1-E2E1DFCFAF53}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="167">
   <si>
     <t>公司名/项目名</t>
   </si>
@@ -729,6 +729,147 @@
   </si>
   <si>
     <t>工商大数据，多维度分析公司历史和现状</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间：2019.03.23 - 2018.04.04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qupital</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线发票贴现交易平台。通过审核的公司可以将能够验证的发票提供给平台，投资者可以查看单个发票以及提供发票的贴现率，当有用户购买标的时，平台便会将资金转移给发票销售公司。平台致力于通过拍卖未付款发票的方式，解决公司的资金问题。
+搭建了一个线上的供应链金融平台，可以为中小企业提供应受账款融资、采购融资等金融服务。中小企业需要通过 Qupital 的资质审核，首次审批通常在 3 - 7 日内完成。然后，中小企业将应收账款等票据上传至平台，Qupital 会作为中介方为票据寻找潜在买家，买家需要在平台上根据票据的折现率进行竞价交易。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需中小企业抵押资产；
+供应链金融；
+发票贴现交易；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务数据：
+其他财务数据（月）： 已成功完成超过 8000 笔交易，总计达 20 亿港元，单笔交易额平均在 8 - 10 万美元不等。
+融资：
+2019.03 A轮 美金 1500万 宜信、 阿里巴巴香港创业者基金、 MindWorks Ventures
+2017.05 种子轮 美金 200万 阿里巴巴香港创业者基金、MindWorks Ventures、DRL资本、The Aria Group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需抵押，解决中小企业融资难问题；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平流上层</t>
+  </si>
+  <si>
+    <t>保险科技；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个中间平台，将OTA、航司、酒店、出行服务、机场到店服务商等航旅服务产业链链接起来。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务数据（截止到2018年6月）：
+平均日活：30,000,000日 客户数量：50
+融资：
+2019.03 A轮 人民币 未披露 上海岑聿企业管理合伙企业（有限合伙）
+2018.06 天使轮 人民币 1000万 万豪投资、 东大保险经纪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewBanker</t>
+  </si>
+  <si>
+    <t>专注服务于中国财富管理行业的技术服务商，除了以SaaS/PaaS的形式为财富管理机构提供业务支持系统、场景获客系统、产品管理系统等科技支持外，为促进财富管理机构高效开展业务，NewBanker 还为中国财富管理行业及机构提供战略研究、行业资讯、投资者教育、高端培训、行业媒体推广等各方面综合服务。
+- 拥有四大业务板块，包括金融科技、事务管理服务、行业商学院、行业媒体与研究。
+- 为财富管理机构提供基于 SaaS 的全业务支持系统，覆盖财富管理领域超过 20 种业务场景，如前期获客到后端的产品、合规、预约、团队等管理业务，满足企业高管、中后台管理人员、理财顾问以及投资人等四端业务流需求。
+- 提供交易支持：分为两个部分，金融资产部分可为财富管理机构对接信托、非标债权、保险、私募股权、海外房产、海外公募等资产，投资门槛在百万左右；非金融资产部分则包括高端医疗、高端消费、游学访问、投资者教育等服务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资：
+2019.03 C轮 美金 千万级 凡创资本、经纬出行基金、元生资本、经纬中国、阿特列斯资本 
+2017.12 B轮 人民币 近亿 元生资本、经纬中国、阿特列斯资本 
+2017.06 A轮 人民币 2500万 经纬中国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务覆盖较广（做系统，做学院，做服务，做财富管理，不能说到底是好还是坏，只能说对整体运营能力有很高的要求）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务覆盖面多而杂（这种模式有好有坏，值得观察学习）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇众医疗</t>
+  </si>
+  <si>
+    <t>基于AI的医疗产业投资平台，依托自然语言处理算法、神经网络机器翻译等技术提供7x24小时的新闻情报、结构化的数据库、高度精准的投资图谱及全标的FA平台，为医疗健康领域的一级市场、二级市场及产业投资者提供不限语种的国际投资信息和智能化资产管理服务。
+- 为一级市场及二级市场等投资者提供行业行情分析、研究、尽职调查、投融资顾问等服务；
+- 为政府、大学、媒体、企业、研究 机构等各类研究者，提供招商、行业分析研究、数据报告等服务；
+- 为创业项目及创业者，提供市场环 境研究、政策法规研究、投融资顾问团队组建等服务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资：
+2019.02 Pre-A轮 人民币 数千万 汇信资本、商鹊网
+2018.05 天使轮 人民币 500万 未披露</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗垂直产业投资服务商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直行业服务商，值得观察，看能否成为细分领域龙头。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖财</t>
+  </si>
+  <si>
+    <t>移动互联网个人投资理财平台，主要为用户提供投资理财、理财记账、以及投资管理和理财学习社区等服务，专注于帮用户实现个人资产管理的便利化、个人记账理财的移动化、个人财务数据管理的云端化，旗下还推出了圈子账本、贝多多和微记账等理财软件以及互联网信用信贷产品快贷。
+成立于 2009 年，首先推出的产品是移动端的个人记账工具“挖财记账理财”，随后推出了一些列产品，包括“挖财信用卡管家”、综合理财信息平台“挖财宝”等，业务包括个人财务管理、信用及负债管理、互联网综合理财、社区理财资讯等业务，为用户提供一站式互联网财富管理工具、信息及服务。
+- 旗下产品APP有
+1.挖财记账。
+2.挖财基金。
+3.挖财钱管家。
+4.挖财信用卡管家。
+5.钱堂。
+6.挖财股神。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立时间长；
+业务成熟；
+用户量大；
+多轮融资；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务数据：
+其他财务数据（月）：截至 2018 年 6 月，挖财基金累计销量超过 200 亿，持仓用户数超过 25 万。
+融资：
+2018.07 D轮 美金 1.4亿 华平投资、东英金融、启明创投 
+2017.05 战略融资 美金 4,200万 启明创投、宽带资本、新天域资本、汇桥资本、国开金融 
+2015.07 C轮 美金 8,000万 鼎晖投资、启明创投、中金资本、光信资本、宽带资本、新天域资本、汇桥资本、IDG资本 
+2014.12 B轮 美金 5,000万 鼎晖投资、中金资本、宽带资本、IDG资本 
+2014.02 A轮 美金 数千万 鼎晖投资、启明创投、IDG资本 
+2011.06 天使轮 人民币 1,000万 阿米巴资本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较成熟的普惠金融创业公司，后期发展可期。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -864,11 +1005,11 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="57" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1185,11 +1326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E70F5-F39C-FE4D-9E30-C532B6C9821A}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1223,614 +1364,722 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="176">
+      <c r="A3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="112">
+      <c r="A4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="8">
+        <v>42675</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="288">
+      <c r="A5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="8">
+        <v>42491</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="192">
+      <c r="A6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="8">
+        <v>39753</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="288">
+      <c r="A7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40118</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="21">
+      <c r="A8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="208">
-      <c r="A4" s="6" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="208">
+      <c r="A9" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E9" s="8">
         <v>41913</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="224">
-      <c r="A5" s="6" t="s">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="224">
+      <c r="A10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E10" s="8">
         <v>40238</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="144">
-      <c r="A6" s="6" t="s">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="144">
+      <c r="A11" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E11" s="8">
         <v>42736</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="176">
-      <c r="A7" s="6" t="s">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="176">
+      <c r="A12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E12" s="8">
         <v>43313</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="240">
-      <c r="A8" s="6" t="s">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="240">
+      <c r="A13" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E13" s="8">
         <v>42186</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="21">
-      <c r="A9" s="8" t="s">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="21">
+      <c r="A14" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="192">
-      <c r="A10" s="6" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="192">
+      <c r="A15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="160">
-      <c r="A11" s="6" t="s">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="160">
+      <c r="A16" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="160">
-      <c r="A12" s="6" t="s">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="160">
+      <c r="A17" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="224">
-      <c r="A13" s="6" t="s">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="224">
+      <c r="A18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="350">
-      <c r="A14" s="6" t="s">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="350">
+      <c r="A19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="64">
-      <c r="A16" s="6" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="64">
+      <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="144">
-      <c r="A17" s="6" t="s">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="144">
+      <c r="A22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E22" s="7">
         <v>42173</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="335">
-      <c r="A18" s="6" t="s">
+    <row r="23" spans="1:6" ht="335">
+      <c r="A23" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E23" s="7">
         <v>41467</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="256">
-      <c r="A19" s="6" t="s">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="256">
+      <c r="A24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E24" s="7">
         <v>42826</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="365">
-      <c r="A20" s="6" t="s">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="365">
+      <c r="A25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E25" s="7">
         <v>42111</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="128">
-      <c r="A22" s="3" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="128">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E27" s="4">
         <v>42036</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="48">
-      <c r="A23" s="3" t="s">
+    <row r="28" spans="1:6" ht="48">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E28" s="4">
         <v>41183</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="208">
-      <c r="A24" s="2" t="s">
+    <row r="29" spans="1:6" ht="208">
+      <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E29" s="4">
         <v>42979</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="320">
-      <c r="A25" s="3" t="s">
+    <row r="30" spans="1:6" ht="320">
+      <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E30" s="4">
         <v>42156</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="192">
-      <c r="A26" s="3" t="s">
+    <row r="31" spans="1:6" ht="192">
+      <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E31" s="4">
         <v>42125</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="176">
-      <c r="A27" s="3" t="s">
+    <row r="32" spans="1:6" ht="176">
+      <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E32" s="4">
         <v>42095</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="176">
-      <c r="A28" s="3" t="s">
+    <row r="33" spans="1:8" ht="176">
+      <c r="A33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E33" s="4">
         <v>42186</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="48">
-      <c r="A30" s="3" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" ht="48">
+      <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E35" s="4">
         <v>42583</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="48">
-      <c r="A31" s="3" t="s">
+    <row r="36" spans="1:8" ht="48">
+      <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E36" s="4">
         <v>42979</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="32">
-      <c r="A32" s="3" t="s">
+    <row r="37" spans="1:8" ht="32">
+      <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E37" s="4">
         <v>38412</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="64">
-      <c r="A33" s="3" t="s">
+    <row r="38" spans="1:8" ht="64">
+      <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E38" s="4">
         <v>37561</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H33">
+      <c r="H38">
         <v>1111</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="585fweS7eZPBLEHXIpIL7hOJEjikk6Qf0KsjJ2udsPacZLS/LO5nm0GPl4czgwbUTypOZv3sZIxrwk0g+gxYow==" saltValue="NhVhMMXuCE81Hl95vWamDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="5">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A9:F9"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kSnq0jwscFgj//T/XS9DLr0QsQs5o3KtEaUbhR5l9nnJB1TH0LJEdqPV+UthE9uoYyD91eCEyk01kkJeNzHiHA==" saltValue="83xnTrY24VCMmbmQXW1zQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
-    <hyperlink ref="A23" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
-    <hyperlink ref="A25" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
-    <hyperlink ref="A26" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
-    <hyperlink ref="A27" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
-    <hyperlink ref="A28" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
-    <hyperlink ref="A30" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
-    <hyperlink ref="A31" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
-    <hyperlink ref="A32" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
-    <hyperlink ref="A33" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
-    <hyperlink ref="A16" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
-    <hyperlink ref="A17" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
-    <hyperlink ref="A18" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
-    <hyperlink ref="A20" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
-    <hyperlink ref="A19" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
-    <hyperlink ref="A10" r:id="rId16" xr:uid="{47CE8DEC-B3EA-7042-AECD-D190F9BEDCE9}"/>
-    <hyperlink ref="A11" r:id="rId17" xr:uid="{ACCB3BAF-ACEF-E04A-9DC0-CF9BC5230899}"/>
-    <hyperlink ref="A12" r:id="rId18" location="/" xr:uid="{F891851B-6F42-9143-A4E2-CEB29CA98818}"/>
-    <hyperlink ref="A13" r:id="rId19" xr:uid="{C7872B6B-D8F1-BC46-A274-A6ED5A5268A7}"/>
-    <hyperlink ref="A14" r:id="rId20" xr:uid="{279994C4-9FA8-924B-87D5-9F0DC577D248}"/>
-    <hyperlink ref="A8" r:id="rId21" xr:uid="{0EE65931-167E-2E4D-9C71-55A2369BD464}"/>
-    <hyperlink ref="A7" r:id="rId22" xr:uid="{2E398C4A-6AD1-9645-8E34-0FA376320922}"/>
-    <hyperlink ref="A6" r:id="rId23" xr:uid="{8AD71AB7-A729-EF41-8014-E153DC615202}"/>
-    <hyperlink ref="A5" r:id="rId24" xr:uid="{2BB3235D-7C18-F945-BDD8-6C123454485A}"/>
-    <hyperlink ref="A4" r:id="rId25" xr:uid="{E2F0C474-24A5-4543-BF4C-8F23FF8073F5}"/>
+    <hyperlink ref="A27" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
+    <hyperlink ref="A28" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
+    <hyperlink ref="A30" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
+    <hyperlink ref="A31" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
+    <hyperlink ref="A32" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
+    <hyperlink ref="A33" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
+    <hyperlink ref="A35" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
+    <hyperlink ref="A36" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
+    <hyperlink ref="A37" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
+    <hyperlink ref="A38" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
+    <hyperlink ref="A21" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
+    <hyperlink ref="A22" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
+    <hyperlink ref="A23" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
+    <hyperlink ref="A25" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
+    <hyperlink ref="A24" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
+    <hyperlink ref="A15" r:id="rId16" xr:uid="{47CE8DEC-B3EA-7042-AECD-D190F9BEDCE9}"/>
+    <hyperlink ref="A16" r:id="rId17" xr:uid="{ACCB3BAF-ACEF-E04A-9DC0-CF9BC5230899}"/>
+    <hyperlink ref="A17" r:id="rId18" location="/" xr:uid="{F891851B-6F42-9143-A4E2-CEB29CA98818}"/>
+    <hyperlink ref="A18" r:id="rId19" xr:uid="{C7872B6B-D8F1-BC46-A274-A6ED5A5268A7}"/>
+    <hyperlink ref="A19" r:id="rId20" xr:uid="{279994C4-9FA8-924B-87D5-9F0DC577D248}"/>
+    <hyperlink ref="A13" r:id="rId21" xr:uid="{0EE65931-167E-2E4D-9C71-55A2369BD464}"/>
+    <hyperlink ref="A12" r:id="rId22" xr:uid="{2E398C4A-6AD1-9645-8E34-0FA376320922}"/>
+    <hyperlink ref="A11" r:id="rId23" xr:uid="{8AD71AB7-A729-EF41-8014-E153DC615202}"/>
+    <hyperlink ref="A10" r:id="rId24" xr:uid="{2BB3235D-7C18-F945-BDD8-6C123454485A}"/>
+    <hyperlink ref="A9" r:id="rId25" xr:uid="{E2F0C474-24A5-4543-BF4C-8F23FF8073F5}"/>
+    <hyperlink ref="A3" r:id="rId26" xr:uid="{C0D8C994-99B1-8248-A7B3-3CBCEC879A07}"/>
+    <hyperlink ref="A4" r:id="rId27" xr:uid="{E40FCCB5-1F95-F342-8966-0B2AA3CC8370}"/>
+    <hyperlink ref="A5" r:id="rId28" xr:uid="{80C07B61-7CE1-F840-B353-0B7E0EAC3EDE}"/>
+    <hyperlink ref="A6" r:id="rId29" xr:uid="{7DB3A1D1-B3B3-6948-82B4-DD3552F6AB10}"/>
+    <hyperlink ref="A7" r:id="rId30" xr:uid="{3D8E50A3-4B95-3545-BBA7-E118BCF911D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinTech-Firms.xlsx
+++ b/FinTech-Firms.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taotao/Desktop/github/awesome-fintech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF9F0DD-1D17-9842-9529-71397F56E4D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA3D2E7-8090-1641-A9BE-F4544FACFBD2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1B15A463-F62A-4348-80D1-E2E1DFCFAF53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$A$44</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="193">
   <si>
     <t>公司名/项目名</t>
   </si>
@@ -870,6 +873,149 @@
   </si>
   <si>
     <t>比较成熟的普惠金融创业公司，后期发展可期。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间：2019.04.05 - 2018.04.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优脉财富汇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族财富管理服务平台，通过线上、线下结合的方式，向财富办公室、家族办公室等提供宏观投资趋势研究、金融产品筛选、风险管理、资产管理、产品存续服务、合规法务、中后台系统支持和行政服务，公司还开发了“优脉智慧云”平台，为财富管理部门提供一站式管理工具。
+- 资产筛选与家族资产管理：拥有资产管理牌照，服务分为三部分全球金融资产筛选、尽调、风控及配置，涵盖一二级及非标资产市场超过 80 家合作方，产品包括信托、私募股权、私募证券、类固收、债权、房地产、不良资产等；提供定制化资产管理方案，包括投资方向、标的、决策方式、流程等；为客户提供资产的风控建议及投资存续期间的风险管理服务。
+- 家族办公室筹建及运营支持：为初创家族办公室提供IT支持、治理及股权结构设计能力、法务税务、品牌建设等服务。自研发了家族办公室运营支持系统“优脉智汇云”，覆盖后台产品全生命周期管理、中台作业管理到前台客户服务，以 SaaS 方式部署。
+- 家族事务专业资源：筛选聚集家族事务相关的教育、健康、传承、慈善及法律资源。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不运营资产，不与任何产品供应商承诺销售，重点帮助客户做资产尽调、风控以及进行商务谈判。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资：
+2018.02 B轮 人民币 6000万 普华资本、老鹰基金、中资北方、银江资本 
+2016.08 A轮 人民币 2000万 老鹰基金、神州通投资集团、爱施德 
+2016.01 天使轮 人民币 1000万 未披露</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高净值家庭财富管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三加科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能家居设计平台，主要提供基于人工智能技术的家居设计服务。旗下自主研发了智能设计算法及户型图识别算法，当用户上传户型图之后，就可以使用设计师团队创作出来的家居模板快速识别匹配，并输出符合用户个性化要求的家装设计方案。
+- 150 ㎡以内智能设计算法仅需 0.2 秒，胜任 95% 以上商品新房户型，支持橱柜智能设计，满足操作工序。
+- 独立成员的需求应对算法，需求重要性智能排序。多种方案进行比较，支持自定义居住需求的智能设计。
+- 基于 Unity 引擎进行开发，对移动平台与 PC 平台更好的兼容性，支持三视角浏览体验。
+- 让消费者看到家具在家里的样子；真实尺寸，物理材质，写实渲染；本地加载，无需等待。预置品牌家具套装选中家具，补充场景。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资：
+2019.04 未透露 人民币 未披露 金沙江创投
+2018.05 天使轮 人民币 350万 英诺天使、常见投资、广联达英诺建筑产业基金、水木清华校友基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能家居；
+房地产后市场；
+VR,AR,MR
+有BP；
+值得观察跟踪；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能家居；VR,AR,MR；
+家装市场目前已经非常成熟，但伴随AR/VR/MR的发展，且家装市场需求稳步增长，智能家装设计能否带来更多增益值得观察，也许是虚拟现实技术应用的一个细分领域，同时若技术足够成熟，也许会给当前家装市场带来一定的升级换代。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京硅基智能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融行业智能语音和机器人视觉解决方案提供商，采用深度学习技术，提供语音识别、口语理解、对话管理、自然语言生成、文本生成语音五种对话系统技术模块的协同运作，确保产品识别出用户对话中表达的意思，精准判断用户意向并给出准确回应。
+- 产品：
+硅语全自动电话机器人、人工智能盲人眼镜、语音识别 (ASR)、语音合成 (TTS)、声纹识别 (VPR)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资：
+2019.04 B轮 人民币 数亿 腾讯 
+2018.07 A+轮 人民币 未披露 红杉资本中国 
+2018.05 战略融资 人民币 未披露 招银国际 
+2018.03 A轮 人民币 数千万 奇虎360 澎湃资本 
+2018.01 天使轮 人民币 2,000万 和君资本、好望角投资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金方都很给力，产品体验很不错；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音合成，语音机器人，语音电话机器人等。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">因果树 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能股权投融资服务平台，依托大数据和人工智能对行业、公司、资本市场进行分析，对股权大数据进行量化，从而针对一级股权市场，为投融资双方提供撮合服务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级市场数据平台；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资：
+2018.05 C轮 人民币 未披露 成玉企业管理 
+2016.10 B轮 人民币 1亿 保利资本 
+2015.09 A轮 人民币 5000万 中海亿阳投资、天风天睿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级市场投融资数据；
+产品信息维度不多，但会员费很贵。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理享家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对高净值人群；
+海外资产配置；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外资产配置服务平台，为高净值家庭用户提供海外保险及家族信托、全球移民、高端医疗、全球房产、海外基金及债券、下一代留学及就业服务，并且提供产品培训及销售咨询服务，销售体系搭建建议、抵港签单安排，保单后续续保及理赔等周边服务。
+- 海外资产配置平台产品体系分为八大板块：海外保险、全球移民、独角兽投资、全球房产、保送留学、美元固收、海外医疗及家族信托服务。
+- 海外资产配置平台提供的服务种类包括：产品培训及销售咨询服务，销售体系搭建建议，人才支持，互联网营销支持，抵港签单安排，保单后续续保及理赔等一系列专业海外资产配置周边服务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务数据（截止到 2018年7月）：
+覆盖城市数量：26 覆盖品类数量：2,000 其他业务数据：- 目前已经在国内 26 个城市设立了分公司，服务全国超过 1200 家机构和超过 15 万的独立理财师，迄今资产管理规模已经突破 30 亿美元；
+- 理享家与摩根士丹利、瑞士银行、华润信托、中金、招银国际、工银国际等国内外一线资产管理机构和投资银行达成了战略合作；
+- 其发行的港美股独角兽IPO战略配售基金曾参与小米、映客、腾讯音乐、海底捞和美团等项目的基石及锚定投资。
+融资：
+2018.12 C轮 人民币 1.2亿元 乐博投资、好买财富、VCG 集团及慧泉投资 维时资本 
+2018.07 战略融资 美金 千万级 好买基金、华盖创意 
+2017.02 A轮 人民币 未披露 贝塔斯曼亚洲投资基金、涌铧投资、国金证券、紫辉创投、IVP 
+2015.10 天使轮 人民币 未披露 长安私人资本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高净值人群海外资产配置，业务范围较广，融资数据好看。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1326,11 +1472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E70F5-F39C-FE4D-9E30-C532B6C9821A}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1365,7 +1511,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A2" s="9" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1373,109 +1519,109 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="176">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="365">
       <c r="A3" s="6" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>154</v>
+        <v>191</v>
+      </c>
+      <c r="E3" s="8">
+        <v>42675</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="112">
       <c r="A4" s="6" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="E4" s="8">
-        <v>42675</v>
+        <v>41974</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="288">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="128">
       <c r="A5" s="6" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E5" s="8">
-        <v>42491</v>
+        <v>41883</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="192">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="224">
       <c r="A6" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E6" s="8">
-        <v>39753</v>
+        <v>43160</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="288">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="335">
       <c r="A7" s="6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E7" s="8">
-        <v>40118</v>
+        <v>41730</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A8" s="9" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1483,107 +1629,109 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="208">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="176">
       <c r="A9" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="8">
-        <v>41913</v>
+        <v>145</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="224">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="112">
       <c r="A10" s="6" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E10" s="8">
-        <v>40238</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="144">
+        <v>42675</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="288">
       <c r="A11" s="6" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E11" s="8">
-        <v>42736</v>
+        <v>42491</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="176">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="192">
       <c r="A12" s="6" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="E12" s="8">
-        <v>43313</v>
+        <v>39753</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="240">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="288">
       <c r="A13" s="6" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="E13" s="8">
-        <v>42186</v>
+        <v>40118</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A14" s="9" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1591,109 +1739,107 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="192">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="208">
       <c r="A15" s="6" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>93</v>
+        <v>139</v>
+      </c>
+      <c r="E15" s="8">
+        <v>41913</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="160">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="224">
       <c r="A16" s="6" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="160">
+        <v>134</v>
+      </c>
+      <c r="E16" s="8">
+        <v>40238</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="144">
       <c r="A17" s="6" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
+      </c>
+      <c r="E17" s="8">
+        <v>42736</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="224">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="176">
       <c r="A18" s="6" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
+      </c>
+      <c r="E18" s="8">
+        <v>43313</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="350">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="240">
       <c r="A19" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="E19" s="8">
+        <v>42186</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A20" s="9" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1701,103 +1847,109 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" ht="64">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="192">
       <c r="A21" s="6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="160">
+      <c r="A22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="144">
-      <c r="A22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="7">
-        <v>42173</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="335">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="160">
       <c r="A23" s="6" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="7">
-        <v>41467</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="256">
+        <v>102</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="224">
       <c r="A24" s="6" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="7">
-        <v>42826</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="365">
+        <v>107</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="350">
       <c r="A25" s="6" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="7">
-        <v>42111</v>
+        <v>113</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1805,281 +1957,392 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" ht="128">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:6" ht="64">
+      <c r="A27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="144">
+      <c r="A28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="7">
+        <v>42173</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="335">
+      <c r="A29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="7">
+        <v>41467</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="256">
+      <c r="A30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="7">
+        <v>42826</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="365">
+      <c r="A31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="7">
+        <v>42111</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="128">
+      <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E33" s="4">
         <v>42036</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="48">
-      <c r="A28" s="3" t="s">
+    <row r="34" spans="1:8" ht="48">
+      <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E34" s="4">
         <v>41183</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="208">
-      <c r="A29" s="2" t="s">
+    <row r="35" spans="1:8" ht="208">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E35" s="4">
         <v>42979</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="320">
-      <c r="A30" s="3" t="s">
+    <row r="36" spans="1:8" ht="320">
+      <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E36" s="4">
         <v>42156</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="192">
-      <c r="A31" s="3" t="s">
+    <row r="37" spans="1:8" ht="192">
+      <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E37" s="4">
         <v>42125</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="176">
-      <c r="A32" s="3" t="s">
+    <row r="38" spans="1:8" ht="176">
+      <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E38" s="4">
         <v>42095</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="176">
-      <c r="A33" s="3" t="s">
+    <row r="39" spans="1:8" ht="176">
+      <c r="A39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E39" s="4">
         <v>42186</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="9" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" ht="48">
-      <c r="A35" s="3" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" ht="48">
+      <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E41" s="4">
         <v>42583</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="48">
-      <c r="A36" s="3" t="s">
+    <row r="42" spans="1:8" ht="48">
+      <c r="A42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E42" s="4">
         <v>42979</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="32">
-      <c r="A37" s="3" t="s">
+    <row r="43" spans="1:8" ht="32">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E43" s="4">
         <v>38412</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="64">
-      <c r="A38" s="3" t="s">
+    <row r="44" spans="1:8" ht="64">
+      <c r="A44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E44" s="4">
         <v>37561</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H38">
+      <c r="H44">
         <v>1111</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kSnq0jwscFgj//T/XS9DLr0QsQs5o3KtEaUbhR5l9nnJB1TH0LJEdqPV+UthE9uoYyD91eCEyk01kkJeNzHiHA==" saltValue="83xnTrY24VCMmbmQXW1zQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="6">
+  <sheetProtection algorithmName="SHA-512" hashValue="zgzrWqgdZdieCRJJDmJF8Wt01AGu2Rb3a3Zdy13xbVg0ndA+NOMN2q2pRf7MIynJhusb0v/k/f4PA9jAacZoIw==" saltValue="xuD3VRGmt+iNqpL94tLXpw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:A44" xr:uid="{EF332675-695D-9A4E-9699-AB3458809121}"/>
+  <mergeCells count="7">
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
-    <hyperlink ref="A28" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
-    <hyperlink ref="A30" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
-    <hyperlink ref="A31" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
-    <hyperlink ref="A32" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
-    <hyperlink ref="A33" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
-    <hyperlink ref="A35" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
-    <hyperlink ref="A36" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
-    <hyperlink ref="A37" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
-    <hyperlink ref="A38" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
-    <hyperlink ref="A21" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
-    <hyperlink ref="A22" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
-    <hyperlink ref="A23" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
-    <hyperlink ref="A25" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
-    <hyperlink ref="A24" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
-    <hyperlink ref="A15" r:id="rId16" xr:uid="{47CE8DEC-B3EA-7042-AECD-D190F9BEDCE9}"/>
-    <hyperlink ref="A16" r:id="rId17" xr:uid="{ACCB3BAF-ACEF-E04A-9DC0-CF9BC5230899}"/>
-    <hyperlink ref="A17" r:id="rId18" location="/" xr:uid="{F891851B-6F42-9143-A4E2-CEB29CA98818}"/>
-    <hyperlink ref="A18" r:id="rId19" xr:uid="{C7872B6B-D8F1-BC46-A274-A6ED5A5268A7}"/>
-    <hyperlink ref="A19" r:id="rId20" xr:uid="{279994C4-9FA8-924B-87D5-9F0DC577D248}"/>
-    <hyperlink ref="A13" r:id="rId21" xr:uid="{0EE65931-167E-2E4D-9C71-55A2369BD464}"/>
-    <hyperlink ref="A12" r:id="rId22" xr:uid="{2E398C4A-6AD1-9645-8E34-0FA376320922}"/>
-    <hyperlink ref="A11" r:id="rId23" xr:uid="{8AD71AB7-A729-EF41-8014-E153DC615202}"/>
-    <hyperlink ref="A10" r:id="rId24" xr:uid="{2BB3235D-7C18-F945-BDD8-6C123454485A}"/>
-    <hyperlink ref="A9" r:id="rId25" xr:uid="{E2F0C474-24A5-4543-BF4C-8F23FF8073F5}"/>
-    <hyperlink ref="A3" r:id="rId26" xr:uid="{C0D8C994-99B1-8248-A7B3-3CBCEC879A07}"/>
-    <hyperlink ref="A4" r:id="rId27" xr:uid="{E40FCCB5-1F95-F342-8966-0B2AA3CC8370}"/>
-    <hyperlink ref="A5" r:id="rId28" xr:uid="{80C07B61-7CE1-F840-B353-0B7E0EAC3EDE}"/>
-    <hyperlink ref="A6" r:id="rId29" xr:uid="{7DB3A1D1-B3B3-6948-82B4-DD3552F6AB10}"/>
-    <hyperlink ref="A7" r:id="rId30" xr:uid="{3D8E50A3-4B95-3545-BBA7-E118BCF911D1}"/>
+    <hyperlink ref="A33" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
+    <hyperlink ref="A34" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
+    <hyperlink ref="A36" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
+    <hyperlink ref="A37" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
+    <hyperlink ref="A38" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
+    <hyperlink ref="A39" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
+    <hyperlink ref="A41" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
+    <hyperlink ref="A42" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
+    <hyperlink ref="A43" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
+    <hyperlink ref="A44" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
+    <hyperlink ref="A27" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
+    <hyperlink ref="A28" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
+    <hyperlink ref="A29" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
+    <hyperlink ref="A31" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
+    <hyperlink ref="A30" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
+    <hyperlink ref="A21" r:id="rId16" xr:uid="{47CE8DEC-B3EA-7042-AECD-D190F9BEDCE9}"/>
+    <hyperlink ref="A22" r:id="rId17" xr:uid="{ACCB3BAF-ACEF-E04A-9DC0-CF9BC5230899}"/>
+    <hyperlink ref="A23" r:id="rId18" location="/" xr:uid="{F891851B-6F42-9143-A4E2-CEB29CA98818}"/>
+    <hyperlink ref="A24" r:id="rId19" xr:uid="{C7872B6B-D8F1-BC46-A274-A6ED5A5268A7}"/>
+    <hyperlink ref="A25" r:id="rId20" xr:uid="{279994C4-9FA8-924B-87D5-9F0DC577D248}"/>
+    <hyperlink ref="A19" r:id="rId21" xr:uid="{0EE65931-167E-2E4D-9C71-55A2369BD464}"/>
+    <hyperlink ref="A18" r:id="rId22" xr:uid="{2E398C4A-6AD1-9645-8E34-0FA376320922}"/>
+    <hyperlink ref="A17" r:id="rId23" xr:uid="{8AD71AB7-A729-EF41-8014-E153DC615202}"/>
+    <hyperlink ref="A16" r:id="rId24" xr:uid="{2BB3235D-7C18-F945-BDD8-6C123454485A}"/>
+    <hyperlink ref="A15" r:id="rId25" xr:uid="{E2F0C474-24A5-4543-BF4C-8F23FF8073F5}"/>
+    <hyperlink ref="A9" r:id="rId26" xr:uid="{C0D8C994-99B1-8248-A7B3-3CBCEC879A07}"/>
+    <hyperlink ref="A10" r:id="rId27" xr:uid="{E40FCCB5-1F95-F342-8966-0B2AA3CC8370}"/>
+    <hyperlink ref="A11" r:id="rId28" xr:uid="{80C07B61-7CE1-F840-B353-0B7E0EAC3EDE}"/>
+    <hyperlink ref="A12" r:id="rId29" xr:uid="{7DB3A1D1-B3B3-6948-82B4-DD3552F6AB10}"/>
+    <hyperlink ref="A13" r:id="rId30" xr:uid="{3D8E50A3-4B95-3545-BBA7-E118BCF911D1}"/>
+    <hyperlink ref="A7" r:id="rId31" xr:uid="{9B39BC6F-A53E-814A-AB1A-C4782721C0E4}"/>
+    <hyperlink ref="A6" r:id="rId32" xr:uid="{9E8AE9CF-C0B2-F74B-A80F-F6EC1DDEB726}"/>
+    <hyperlink ref="A5" r:id="rId33" xr:uid="{E2892688-D595-4A4A-9973-0AE08622ED4D}"/>
+    <hyperlink ref="A4" r:id="rId34" xr:uid="{8CC28F0A-DC16-2F43-9FAE-121A218EE097}"/>
+    <hyperlink ref="A3" r:id="rId35" xr:uid="{A5E71C62-AB21-9E4F-93A8-6EE93165EC2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinTech-Firms.xlsx
+++ b/FinTech-Firms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taotao/Desktop/github/awesome-fintech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA3D2E7-8090-1641-A9BE-F4544FACFBD2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD661B6-FA0F-844E-AE50-F89D4F744A91}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1B15A463-F62A-4348-80D1-E2E1DFCFAF53}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$A$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$A$50</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="208">
   <si>
     <t>公司名/项目名</t>
   </si>
@@ -1016,6 +1016,93 @@
   </si>
   <si>
     <t>高净值人群海外资产配置，业务范围较广，融资数据好看。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间：2019.04.19 - 2018.04.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金电联航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用信息服务提供商，基于大数据理论与云计算技术创建信用评价体系，挖掘和分析传统行业的产业链数据，获得决策型数据。同时提供技术体系的搭建、业务体系搭建以及应用体系搭建三类服务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务数据（截止到 20190422）：
+其他业务数据：已经与民生银行、邮储银行、国家开发银行、广发银行等合作，通过贷前高效批量企业筛查，贷后实时风控预警，为1000多家中小微企业提供了总规模60多亿元人民币的纯信用授信服务。
+融资：
+2015.04 C轮 人民币 3亿 三联虹普 
+2014.12 B轮 人民币 1亿 国泰君安、国科嘉和、力鼎资本、益万方大投资、苏州瑞牛四号投资中心 
+2013.04 A轮 人民币 2600万 国科嘉和、中科院投资
+2012.05 Pre-A轮 人民币 未披露  
+2011.01 天使轮 人民币 未披露</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融大数据，
+政务大数据，
+产业大数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我爱多保鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网保险平台，专注于互联网保险科技，开发了“多保鱼选保险”微信小程序”和“我爱多保鱼”微信公众号，平台以内容建设为基础，为用户提供免费保险咨询、保险知识学习和DIY保险方案服务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务数据（截止到20190214）：
+用户数量：4,000,000 其他业务数据：通过微信公众号、抖音、小红书、微博、快手等多个渠道累积超过400万关注用户。
+截至今年1月，多保鱼用户总保费规模超过5 亿元，总保额超过20亿元。
+融资：
+2019.04 A+轮 美金 1000万美元 光速中国创业投资基金、贝塔斯曼亚洲投资基金、真格基金 
+2019.02 A轮 人民币 数千万 贝塔斯曼亚洲投资基金、真格基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网保险平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网保险，资方背景强。印度一家互联网保险独角兽 PolicyBazaar 目前已累计融资 3.2亿刀，估值10亿刀，其模式值得学习。关于 PolicyBazaar,可以参考这篇报道：https://www.weiyangx.com/322899.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同盾科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方大数据风控服务提供商，为银行、保险、基金理财等多个行业的用户提供基于大数据的风险控制与反欺诈服务，拥有带自主知识产权的一系列核心产品，并支持企业级产品和互联网SAAS产品，满足企业风险管理的不同需求。
+- 反欺诈服务：包括欺诈情报监控、账户安全保护、营销反作弊等。
+- 信贷风控服务：包括贷前审核、贷中复查、贷后监控。
+- 核心风控工具：包括决策引擎、模型平台、复杂网络、案件管理。
+- 信息核验服务：对应关系验证与专项信息查询。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">规模（截止到20190425）：
+其他业务数据：同盾服务客户数超 10000 家，其中信贷客户超 5000 家，调用总量超 700 亿，日均调用量超 1 亿。
+公司团队包括来自阿里、PayPal、银联、FICO、SAS、平安、麦肯锡等企业的成员，现今规模超 1200 人，80% 的成员为产品研发及数据科学家。
+融资：
+2019.04 未透露 美金 1亿 中白基金、GGV纪源资本、光控华登、国泰全球、信达汉石 
+2017.10 C轮 美金 7280万 信达汉石、Temasek淡马锡、天图资本、尚珹资本 
+2016.04 B+轮 美金 3,200万 华创资本,元禾控股,启明创投,宽带资本,线性资本,尚珹资本,IDG资本 
+2015.05 B轮 美金 3,000万 华创资本,启明创投,宽带资本,线性资本,IDG资本 
+2014.08 A+轮 美金 1,000万 宽带资本,IDG资本 
+2013.11 A轮 人民币 1,000万 华创资本,宽带资本,线性资本,IDG资本 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据风控，征信服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务范围广，产品成熟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1472,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E70F5-F39C-FE4D-9E30-C532B6C9821A}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1511,7 +1598,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A2" s="9" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1519,109 +1606,83 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="365">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="256">
       <c r="A3" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E3" s="8">
-        <v>42675</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="112">
+        <v>39234</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="176">
       <c r="A4" s="6" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E4" s="8">
-        <v>41974</v>
+        <v>42887</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="128">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6">
       <c r="A5" s="6" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E5" s="8">
-        <v>41883</v>
+        <v>41183</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="224">
-      <c r="A6" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="8">
-        <v>43160</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="335">
-      <c r="A7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="8">
-        <v>41730</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="21">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="21">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A8" s="9" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1629,109 +1690,109 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="176">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="365">
       <c r="A9" s="6" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>154</v>
+        <v>191</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42675</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="112">
       <c r="A10" s="6" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="E10" s="8">
-        <v>42675</v>
+        <v>41974</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="288">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="128">
       <c r="A11" s="6" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E11" s="8">
-        <v>42491</v>
+        <v>41883</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="192">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="224">
       <c r="A12" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E12" s="8">
-        <v>39753</v>
+        <v>43160</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="288">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="335">
       <c r="A13" s="6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E13" s="8">
-        <v>40118</v>
+        <v>41730</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A14" s="9" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1739,107 +1800,109 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="208">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="176">
       <c r="A15" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="8">
-        <v>41913</v>
+        <v>145</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="224">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="112">
       <c r="A16" s="6" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E16" s="8">
-        <v>40238</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="144">
+        <v>42675</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="288">
       <c r="A17" s="6" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E17" s="8">
-        <v>42736</v>
+        <v>42491</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="176">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="192">
       <c r="A18" s="6" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="E18" s="8">
-        <v>43313</v>
+        <v>39753</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="240">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="288">
       <c r="A19" s="6" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="E19" s="8">
-        <v>42186</v>
+        <v>40118</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A20" s="9" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1847,109 +1910,107 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="192">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="208">
       <c r="A21" s="6" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>93</v>
+        <v>139</v>
+      </c>
+      <c r="E21" s="8">
+        <v>41913</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="160">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="224">
       <c r="A22" s="6" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="160">
+        <v>134</v>
+      </c>
+      <c r="E22" s="8">
+        <v>40238</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="144">
       <c r="A23" s="6" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
+      </c>
+      <c r="E23" s="8">
+        <v>42736</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="224">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="176">
       <c r="A24" s="6" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
+      </c>
+      <c r="E24" s="8">
+        <v>43313</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="350">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="240">
       <c r="A25" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="E25" s="8">
+        <v>42186</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A26" s="9" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1957,103 +2018,109 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" ht="64">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="192">
       <c r="A27" s="6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="160">
+      <c r="A28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="144">
-      <c r="A28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="7">
-        <v>42173</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="335">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="160">
       <c r="A29" s="6" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="7">
-        <v>41467</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="256">
+        <v>102</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="224">
       <c r="A30" s="6" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="7">
-        <v>42826</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="365">
+        <v>107</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="350">
       <c r="A31" s="6" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="7">
-        <v>42111</v>
+        <v>113</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2061,288 +2128,395 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="128">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:6" ht="64">
+      <c r="A33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="144">
+      <c r="A34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="7">
+        <v>42173</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="335">
+      <c r="A35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="7">
+        <v>41467</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="256">
+      <c r="A36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="7">
+        <v>42826</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="365">
+      <c r="A37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="7">
+        <v>42111</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="128">
+      <c r="A39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E39" s="4">
         <v>42036</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="48">
-      <c r="A34" s="3" t="s">
+    <row r="40" spans="1:6" ht="48">
+      <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E40" s="4">
         <v>41183</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="208">
-      <c r="A35" s="2" t="s">
+    <row r="41" spans="1:6" ht="208">
+      <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E41" s="4">
         <v>42979</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="320">
-      <c r="A36" s="3" t="s">
+    <row r="42" spans="1:6" ht="320">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E42" s="4">
         <v>42156</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="192">
-      <c r="A37" s="3" t="s">
+    <row r="43" spans="1:6" ht="192">
+      <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E43" s="4">
         <v>42125</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="176">
-      <c r="A38" s="3" t="s">
+    <row r="44" spans="1:6" ht="176">
+      <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E44" s="4">
         <v>42095</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="176">
-      <c r="A39" s="3" t="s">
+    <row r="45" spans="1:6" ht="176">
+      <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E45" s="4">
         <v>42186</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="9" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:8" ht="48">
-      <c r="A41" s="3" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" ht="48">
+      <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E47" s="4">
         <v>42583</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="48">
-      <c r="A42" s="3" t="s">
+    <row r="48" spans="1:6" ht="48">
+      <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E48" s="4">
         <v>42979</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="32">
-      <c r="A43" s="3" t="s">
+    <row r="49" spans="1:8" ht="32">
+      <c r="A49" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E49" s="4">
         <v>38412</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="64">
-      <c r="A44" s="3" t="s">
+    <row r="50" spans="1:8" ht="64">
+      <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E50" s="4">
         <v>37561</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H44">
+      <c r="H50">
         <v>1111</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zgzrWqgdZdieCRJJDmJF8Wt01AGu2Rb3a3Zdy13xbVg0ndA+NOMN2q2pRf7MIynJhusb0v/k/f4PA9jAacZoIw==" saltValue="xuD3VRGmt+iNqpL94tLXpw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:A44" xr:uid="{EF332675-695D-9A4E-9699-AB3458809121}"/>
-  <mergeCells count="7">
+  <autoFilter ref="A1:A50" xr:uid="{EF332675-695D-9A4E-9699-AB3458809121}"/>
+  <mergeCells count="8">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A20:F20"/>
     <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A33" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
-    <hyperlink ref="A34" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
-    <hyperlink ref="A36" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
-    <hyperlink ref="A37" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
-    <hyperlink ref="A38" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
-    <hyperlink ref="A39" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
-    <hyperlink ref="A41" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
-    <hyperlink ref="A42" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
-    <hyperlink ref="A43" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
-    <hyperlink ref="A44" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
-    <hyperlink ref="A27" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
-    <hyperlink ref="A28" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
-    <hyperlink ref="A29" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
-    <hyperlink ref="A31" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
-    <hyperlink ref="A30" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
-    <hyperlink ref="A21" r:id="rId16" xr:uid="{47CE8DEC-B3EA-7042-AECD-D190F9BEDCE9}"/>
-    <hyperlink ref="A22" r:id="rId17" xr:uid="{ACCB3BAF-ACEF-E04A-9DC0-CF9BC5230899}"/>
-    <hyperlink ref="A23" r:id="rId18" location="/" xr:uid="{F891851B-6F42-9143-A4E2-CEB29CA98818}"/>
-    <hyperlink ref="A24" r:id="rId19" xr:uid="{C7872B6B-D8F1-BC46-A274-A6ED5A5268A7}"/>
-    <hyperlink ref="A25" r:id="rId20" xr:uid="{279994C4-9FA8-924B-87D5-9F0DC577D248}"/>
-    <hyperlink ref="A19" r:id="rId21" xr:uid="{0EE65931-167E-2E4D-9C71-55A2369BD464}"/>
-    <hyperlink ref="A18" r:id="rId22" xr:uid="{2E398C4A-6AD1-9645-8E34-0FA376320922}"/>
-    <hyperlink ref="A17" r:id="rId23" xr:uid="{8AD71AB7-A729-EF41-8014-E153DC615202}"/>
-    <hyperlink ref="A16" r:id="rId24" xr:uid="{2BB3235D-7C18-F945-BDD8-6C123454485A}"/>
-    <hyperlink ref="A15" r:id="rId25" xr:uid="{E2F0C474-24A5-4543-BF4C-8F23FF8073F5}"/>
-    <hyperlink ref="A9" r:id="rId26" xr:uid="{C0D8C994-99B1-8248-A7B3-3CBCEC879A07}"/>
-    <hyperlink ref="A10" r:id="rId27" xr:uid="{E40FCCB5-1F95-F342-8966-0B2AA3CC8370}"/>
-    <hyperlink ref="A11" r:id="rId28" xr:uid="{80C07B61-7CE1-F840-B353-0B7E0EAC3EDE}"/>
-    <hyperlink ref="A12" r:id="rId29" xr:uid="{7DB3A1D1-B3B3-6948-82B4-DD3552F6AB10}"/>
-    <hyperlink ref="A13" r:id="rId30" xr:uid="{3D8E50A3-4B95-3545-BBA7-E118BCF911D1}"/>
-    <hyperlink ref="A7" r:id="rId31" xr:uid="{9B39BC6F-A53E-814A-AB1A-C4782721C0E4}"/>
-    <hyperlink ref="A6" r:id="rId32" xr:uid="{9E8AE9CF-C0B2-F74B-A80F-F6EC1DDEB726}"/>
-    <hyperlink ref="A5" r:id="rId33" xr:uid="{E2892688-D595-4A4A-9973-0AE08622ED4D}"/>
-    <hyperlink ref="A4" r:id="rId34" xr:uid="{8CC28F0A-DC16-2F43-9FAE-121A218EE097}"/>
-    <hyperlink ref="A3" r:id="rId35" xr:uid="{A5E71C62-AB21-9E4F-93A8-6EE93165EC2F}"/>
+    <hyperlink ref="A39" r:id="rId1" display="https://www.apix.cn/" xr:uid="{7D40BFC1-5D69-374B-BEEF-7C0F547F47F2}"/>
+    <hyperlink ref="A40" r:id="rId2" display="http://www.baida.im/" xr:uid="{E4839CB2-D217-EF48-9EC4-F9A5A33316A9}"/>
+    <hyperlink ref="A42" r:id="rId3" display="http://www.91zhengxin.com/" xr:uid="{CF486E80-1CC6-BE47-890E-DF41409EFA89}"/>
+    <hyperlink ref="A43" r:id="rId4" display="http://songshushan.com/" xr:uid="{0393788E-0CCA-3542-A041-6AD5EAE89EC8}"/>
+    <hyperlink ref="A44" r:id="rId5" display="http://wuyintong.cn/" xr:uid="{42EA7E74-E220-A845-B467-1914144937B2}"/>
+    <hyperlink ref="A45" r:id="rId6" display="https://www.aigupiao.com/" xr:uid="{80FCA70C-9FDF-2D4C-A712-150C39474A43}"/>
+    <hyperlink ref="A47" r:id="rId7" display="http://spssau.com/" xr:uid="{D0B6ED0C-7CE9-C148-888D-05E6E8E5FEA9}"/>
+    <hyperlink ref="A48" r:id="rId8" display="https://www.zhongan.io/" xr:uid="{AEA1687C-26EF-7241-9B30-04A63100DD81}"/>
+    <hyperlink ref="A49" r:id="rId9" display="http://www.shenglisoft.com/" xr:uid="{3806D6C4-9D16-FC45-A086-499FF6A8206C}"/>
+    <hyperlink ref="A50" r:id="rId10" display="http://www.investoday.com.cn/" xr:uid="{3E533F8A-ECF5-0B44-A1BC-745A260D8B0F}"/>
+    <hyperlink ref="A33" r:id="rId11" xr:uid="{2C744D4A-11DB-B345-9808-88E481E8CA01}"/>
+    <hyperlink ref="A34" r:id="rId12" xr:uid="{F3CD0DAC-73BF-E248-8C16-6E8B2321B107}"/>
+    <hyperlink ref="A35" r:id="rId13" xr:uid="{6BFAE1F5-3D03-914E-84E5-44DF8921FA61}"/>
+    <hyperlink ref="A37" r:id="rId14" xr:uid="{FA3F78AC-4368-2D45-9B0D-0B13338B7960}"/>
+    <hyperlink ref="A36" r:id="rId15" xr:uid="{7E9B03BE-0AE8-0146-9879-CC9A0C8846AB}"/>
+    <hyperlink ref="A27" r:id="rId16" xr:uid="{47CE8DEC-B3EA-7042-AECD-D190F9BEDCE9}"/>
+    <hyperlink ref="A28" r:id="rId17" xr:uid="{ACCB3BAF-ACEF-E04A-9DC0-CF9BC5230899}"/>
+    <hyperlink ref="A29" r:id="rId18" location="/" xr:uid="{F891851B-6F42-9143-A4E2-CEB29CA98818}"/>
+    <hyperlink ref="A30" r:id="rId19" xr:uid="{C7872B6B-D8F1-BC46-A274-A6ED5A5268A7}"/>
+    <hyperlink ref="A31" r:id="rId20" xr:uid="{279994C4-9FA8-924B-87D5-9F0DC577D248}"/>
+    <hyperlink ref="A25" r:id="rId21" xr:uid="{0EE65931-167E-2E4D-9C71-55A2369BD464}"/>
+    <hyperlink ref="A24" r:id="rId22" xr:uid="{2E398C4A-6AD1-9645-8E34-0FA376320922}"/>
+    <hyperlink ref="A23" r:id="rId23" xr:uid="{8AD71AB7-A729-EF41-8014-E153DC615202}"/>
+    <hyperlink ref="A22" r:id="rId24" xr:uid="{2BB3235D-7C18-F945-BDD8-6C123454485A}"/>
+    <hyperlink ref="A21" r:id="rId25" xr:uid="{E2F0C474-24A5-4543-BF4C-8F23FF8073F5}"/>
+    <hyperlink ref="A15" r:id="rId26" xr:uid="{C0D8C994-99B1-8248-A7B3-3CBCEC879A07}"/>
+    <hyperlink ref="A16" r:id="rId27" xr:uid="{E40FCCB5-1F95-F342-8966-0B2AA3CC8370}"/>
+    <hyperlink ref="A17" r:id="rId28" xr:uid="{80C07B61-7CE1-F840-B353-0B7E0EAC3EDE}"/>
+    <hyperlink ref="A18" r:id="rId29" xr:uid="{7DB3A1D1-B3B3-6948-82B4-DD3552F6AB10}"/>
+    <hyperlink ref="A19" r:id="rId30" xr:uid="{3D8E50A3-4B95-3545-BBA7-E118BCF911D1}"/>
+    <hyperlink ref="A13" r:id="rId31" xr:uid="{9B39BC6F-A53E-814A-AB1A-C4782721C0E4}"/>
+    <hyperlink ref="A12" r:id="rId32" xr:uid="{9E8AE9CF-C0B2-F74B-A80F-F6EC1DDEB726}"/>
+    <hyperlink ref="A11" r:id="rId33" xr:uid="{E2892688-D595-4A4A-9973-0AE08622ED4D}"/>
+    <hyperlink ref="A10" r:id="rId34" xr:uid="{8CC28F0A-DC16-2F43-9FAE-121A218EE097}"/>
+    <hyperlink ref="A9" r:id="rId35" xr:uid="{A5E71C62-AB21-9E4F-93A8-6EE93165EC2F}"/>
+    <hyperlink ref="A3" r:id="rId36" xr:uid="{2EA19CBA-C4F2-7F44-B5C8-769D97F0C50A}"/>
+    <hyperlink ref="A4" r:id="rId37" xr:uid="{E855A1D4-141E-144F-B2E5-66C04F49566C}"/>
+    <hyperlink ref="A5" r:id="rId38" xr:uid="{BBEA943E-D162-2A46-BBE4-DB9CE7339001}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
